--- a/experiment/quadratic/ex9_2_1/compare/Alpha-Zero/ex9_2_1_Alpha-Zero.xlsx
+++ b/experiment/quadratic/ex9_2_1/compare/Alpha-Zero/ex9_2_1_Alpha-Zero.xlsx
@@ -479,13 +479,13 @@
         <v>-108.9614444444444</v>
       </c>
       <c r="E2">
-        <v>0.00801054</v>
+        <v>0.00864385</v>
       </c>
       <c r="F2">
-        <v>0.01839501</v>
+        <v>0.016517153</v>
       </c>
       <c r="G2">
-        <v>0.010192073326530613</v>
+        <v>0.01085754318478261</v>
       </c>
       <c r="H2">
         <v>2320</v>
@@ -514,13 +514,13 @@
         <v>-108.96144450739973</v>
       </c>
       <c r="E3">
-        <v>0.0061821</v>
+        <v>0.005905417</v>
       </c>
       <c r="F3">
-        <v>0.01279494</v>
+        <v>0.012786074</v>
       </c>
       <c r="G3">
-        <v>0.007481422107925801</v>
+        <v>0.007574700737878789</v>
       </c>
       <c r="H3">
         <v>7672</v>
